--- a/data/trans_orig/P6515-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6515-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B54FB0C4-5495-4EEF-BD33-36CFA6041119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3789484A-9223-41FC-A21D-178C3337C137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B011D3A5-27A1-4593-87FF-EA7D8C0F389D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2971D7CE-0B7F-4DA5-B398-FD5E44379E58}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
   <si>
     <t>Población según la conducción de vehículos durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,96%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>62,88%</t>
   </si>
   <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,10 +104,10 @@
     <t>15,47%</t>
   </si>
   <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
   </si>
   <si>
     <t>2,06%</t>
@@ -116,397 +116,394 @@
     <t>0,67%</t>
   </si>
   <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
     <t>5,41%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
+    <t>10,71%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
   </si>
   <si>
     <t>64,47%</t>
   </si>
   <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
   </si>
   <si>
     <t>92,71%</t>
   </si>
   <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>74,36%</t>
   </si>
   <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF22E94-1F65-49CA-B4DB-FC349C6EB764}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F39FC6-F2C5-4431-9444-8F2F5DBEEACE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1383,13 +1380,13 @@
         <v>201376</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1404,13 +1401,13 @@
         <v>101529</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -1419,13 +1416,13 @@
         <v>8180</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>108</v>
@@ -1434,13 +1431,13 @@
         <v>109709</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1455,13 +1452,13 @@
         <v>177948</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -1470,13 +1467,13 @@
         <v>14477</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>184</v>
@@ -1485,13 +1482,13 @@
         <v>192425</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1547,7 +1544,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1559,13 +1556,13 @@
         <v>330131</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>254</v>
@@ -1574,13 +1571,13 @@
         <v>264413</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>570</v>
@@ -1589,13 +1586,13 @@
         <v>594545</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1610,13 +1607,13 @@
         <v>29189</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>9</v>
@@ -1625,13 +1622,13 @@
         <v>9026</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>38</v>
@@ -1640,13 +1637,13 @@
         <v>38215</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,13 +1658,13 @@
         <v>11501</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -1676,13 +1673,13 @@
         <v>4906</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -1691,13 +1688,13 @@
         <v>16407</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,13 +1709,13 @@
         <v>31808</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -1727,13 +1724,13 @@
         <v>11831</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -1742,13 +1739,13 @@
         <v>43639</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,13 +1813,13 @@
         <v>1224310</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>907</v>
@@ -1831,13 +1828,13 @@
         <v>948825</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>2074</v>
@@ -1846,13 +1843,13 @@
         <v>2173135</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,13 +1864,13 @@
         <v>271153</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -1882,13 +1879,13 @@
         <v>29248</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>289</v>
@@ -1897,13 +1894,13 @@
         <v>300401</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,13 +1915,13 @@
         <v>145880</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -1933,13 +1930,13 @@
         <v>17987</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>160</v>
@@ -1948,13 +1945,13 @@
         <v>163867</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +1966,13 @@
         <v>257611</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -1984,13 +1981,13 @@
         <v>27356</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>274</v>
@@ -1999,13 +1996,13 @@
         <v>284967</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,7 +2044,7 @@
         <v>2797</v>
       </c>
       <c r="N23" s="7">
-        <v>2922369</v>
+        <v>2922370</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2061,7 +2058,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6515-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6515-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3789484A-9223-41FC-A21D-178C3337C137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3A57344-F480-407C-9A92-F5A0A26AEBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2971D7CE-0B7F-4DA5-B398-FD5E44379E58}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{043D960C-1DB9-48D9-BE4B-F7365BE1B15D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="156">
   <si>
     <t>Población según la conducción de vehículos durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,96%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>62,88%</t>
   </si>
   <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,406 +104,403 @@
     <t>15,47%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
   </si>
   <si>
     <t>72,75%</t>
   </si>
   <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
+    <t>75,88%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
+    <t>3,87%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -918,7 +915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F39FC6-F2C5-4431-9444-8F2F5DBEEACE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EE7845-77F1-4146-8497-37E80F3D1643}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1380,13 +1377,13 @@
         <v>201376</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1401,13 +1398,13 @@
         <v>101529</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -1416,13 +1413,13 @@
         <v>8180</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>108</v>
@@ -1431,13 +1428,13 @@
         <v>109709</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1452,13 +1449,13 @@
         <v>177948</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -1467,13 +1464,13 @@
         <v>14477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>184</v>
@@ -1482,13 +1479,13 @@
         <v>192425</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1544,7 +1541,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1556,13 +1553,13 @@
         <v>330131</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>254</v>
@@ -1571,13 +1568,13 @@
         <v>264413</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>570</v>
@@ -1586,13 +1583,13 @@
         <v>594545</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1607,13 +1604,13 @@
         <v>29189</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>9</v>
@@ -1622,13 +1619,13 @@
         <v>9026</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>38</v>
@@ -1637,13 +1634,13 @@
         <v>38215</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1658,13 +1655,13 @@
         <v>11501</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -1673,13 +1670,13 @@
         <v>4906</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -1688,10 +1685,10 @@
         <v>16407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>112</v>
@@ -1870,7 +1867,7 @@
         <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -1879,13 +1876,13 @@
         <v>29248</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>289</v>
@@ -1984,10 +1981,10 @@
         <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>274</v>
@@ -1996,13 +1993,13 @@
         <v>284967</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2044,7 +2041,7 @@
         <v>2797</v>
       </c>
       <c r="N23" s="7">
-        <v>2922370</v>
+        <v>2922369</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2058,7 +2055,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6515-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6515-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3A57344-F480-407C-9A92-F5A0A26AEBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21EF3DDA-9D74-4950-AE47-F343872BF230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{043D960C-1DB9-48D9-BE4B-F7365BE1B15D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1ED30F59-8DCC-4CBA-A3D2-585C62817877}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
   <si>
     <t>Población según la conducción de vehículos durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,96%)</t>
   </si>
@@ -74,16 +74,16 @@
     <t>62,88%</t>
   </si>
   <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>89,13%</t>
+    <t>89,29%</t>
   </si>
   <si>
     <t>97,29%</t>
@@ -92,10 +92,10 @@
     <t>71,92%</t>
   </si>
   <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,403 +104,409 @@
     <t>15,47%</t>
   </si>
   <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
   </si>
   <si>
     <t>12,44%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>3,87%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -915,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EE7845-77F1-4146-8497-37E80F3D1643}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820D06CF-4589-45F4-A581-4F5B3C8F51F7}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1467,10 +1473,10 @@
         <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>184</v>
@@ -1479,10 +1485,10 @@
         <v>192425</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>86</v>
@@ -1673,10 +1679,10 @@
         <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -1685,13 +1691,13 @@
         <v>16407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,13 +1712,13 @@
         <v>31808</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -1721,13 +1727,13 @@
         <v>11831</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -1736,13 +1742,13 @@
         <v>43639</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,13 +1816,13 @@
         <v>1224310</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>907</v>
@@ -1825,13 +1831,13 @@
         <v>948825</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>2074</v>
@@ -1840,13 +1846,13 @@
         <v>2173135</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,10 +1867,10 @@
         <v>271153</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>79</v>
@@ -1879,10 +1885,10 @@
         <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>289</v>
@@ -1891,13 +1897,13 @@
         <v>300401</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1918,13 @@
         <v>145880</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -1927,13 +1933,13 @@
         <v>17987</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>160</v>
@@ -1942,13 +1948,13 @@
         <v>163867</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,13 +1969,13 @@
         <v>257611</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -1978,13 +1984,13 @@
         <v>27356</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>274</v>
@@ -1993,13 +1999,13 @@
         <v>284967</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,7 +2061,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6515-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6515-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21EF3DDA-9D74-4950-AE47-F343872BF230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C852B5BF-E344-4705-9849-74FD25A6CC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1ED30F59-8DCC-4CBA-A3D2-585C62817877}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C67E898D-E880-4A8B-BA90-44DC1B500796}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -921,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820D06CF-4589-45F4-A581-4F5B3C8F51F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13243CA7-64B5-4A7B-88F6-5B55717C774F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1775,7 +1775,7 @@
         <v>278</v>
       </c>
       <c r="I18" s="7">
-        <v>290176</v>
+        <v>290177</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
